--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched/ifoCAst_errors_filtered_latest_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched/ifoCAst_errors_filtered_latest_GVA.xlsx
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.443333922521575</v>
+        <v>2.452713729843651</v>
       </c>
       <c r="D2">
         <v>10.22617361813016</v>
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-0.211787045478425</v>
+        <v>-0.2024072381563491</v>
       </c>
       <c r="C3">
         <v>2.154824167130161</v>
@@ -572,7 +572,7 @@
         <v>-0.7329669010363498</v>
       </c>
       <c r="D9">
-        <v>0.06591665687274018</v>
+        <v>0.07541333303608777</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -583,10 +583,10 @@
         <v>-0.3339644000363498</v>
       </c>
       <c r="C10">
-        <v>1.68749419387274</v>
+        <v>1.696990870036088</v>
       </c>
       <c r="D10">
-        <v>0.4630429864259835</v>
+        <v>0.44417418258209</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -594,13 +594,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.1808837928727403</v>
+        <v>0.1903804690360879</v>
       </c>
       <c r="C11">
-        <v>1.088701449425983</v>
+        <v>1.06983264558209</v>
       </c>
       <c r="D11">
-        <v>-0.9686075303002357</v>
+        <v>-0.9590976180317647</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -608,10 +608,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.6881010354259836</v>
+        <v>0.66923223158209</v>
       </c>
       <c r="C12">
-        <v>-0.8547584633002359</v>
+        <v>-0.8452485510317647</v>
       </c>
       <c r="D12">
         <v>0.2901758192907124</v>
@@ -622,13 +622,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>-1.095357142300236</v>
+        <v>-1.085847230031765</v>
       </c>
       <c r="C13">
         <v>0.1761002812907124</v>
       </c>
       <c r="D13">
-        <v>0.982640004264559</v>
+        <v>0.9920349685636995</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -639,10 +639,10 @@
         <v>0.0971330122907124</v>
       </c>
       <c r="C14">
-        <v>0.923930449264559</v>
+        <v>0.9333254135636995</v>
       </c>
       <c r="D14">
-        <v>0.8765450433311289</v>
+        <v>0.8577491755291454</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -650,13 +650,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1.111666588264559</v>
+        <v>1.1210615525637</v>
       </c>
       <c r="C15">
-        <v>0.4073451583311289</v>
+        <v>0.3885492905291454</v>
       </c>
       <c r="D15">
-        <v>-0.8968591131624527</v>
+        <v>-0.8873425837224346</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -664,13 +664,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.437053797331129</v>
+        <v>0.4182579295291455</v>
       </c>
       <c r="C16">
-        <v>-0.6550085641624527</v>
+        <v>-0.6454920347224345</v>
       </c>
       <c r="D16">
-        <v>-1.033768334937675</v>
+        <v>-1.024285167559779</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -678,13 +678,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>-0.5639247011624527</v>
+        <v>-0.5544081717224345</v>
       </c>
       <c r="C17">
-        <v>-1.200998811033057</v>
+        <v>-1.191515643655161</v>
       </c>
       <c r="D17">
-        <v>1.016878087510011</v>
+        <v>1.016949629488724</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -692,13 +692,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>-1.274882450912215</v>
+        <v>-1.26539928353432</v>
       </c>
       <c r="C18">
-        <v>0.5245482115100106</v>
+        <v>0.5246197534887239</v>
       </c>
       <c r="D18">
-        <v>0.3271357364848366</v>
+        <v>0.3082097950934801</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -706,13 +706,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.3294742345100106</v>
+        <v>0.3295457764887239</v>
       </c>
       <c r="C19">
-        <v>0.5358974354848366</v>
+        <v>0.5169714940934801</v>
       </c>
       <c r="D19">
-        <v>0.8327439828064123</v>
+        <v>0.8421929667131937</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -720,10 +720,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.01077749951516341</v>
+        <v>-0.02970344090651991</v>
       </c>
       <c r="C20">
-        <v>-0.1893556991935877</v>
+        <v>-0.1799067152868063</v>
       </c>
       <c r="D20">
         <v>0.5381773248377819</v>
@@ -734,13 +734,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.2764766371935877</v>
+        <v>-0.2670276532868063</v>
       </c>
       <c r="C21">
         <v>0.411496762837782</v>
       </c>
       <c r="D21">
-        <v>-0.5094533513890247</v>
+        <v>-0.4617206544916527</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -751,10 +751,10 @@
         <v>0.5544511758377819</v>
       </c>
       <c r="C22">
-        <v>-0.2311459983890247</v>
+        <v>-0.1834133014916527</v>
       </c>
       <c r="D22">
-        <v>0.6341935262360052</v>
+        <v>0.5298148361758083</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -762,10 +762,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01419920438902478</v>
+        <v>0.03353349250834725</v>
       </c>
       <c r="C23">
-        <v>0.2280757452360053</v>
+        <v>0.1236970551758083</v>
+      </c>
+      <c r="D23">
+        <v>0.5311946523564907</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -773,7 +776,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.0212972287639947</v>
+        <v>-0.1256759188241917</v>
+      </c>
+      <c r="C24">
+        <v>-0.02418658464350926</v>
       </c>
     </row>
   </sheetData>
